--- a/_2/Чек-Лист Условий полёта_демо.xlsx
+++ b/_2/Чек-Лист Условий полёта_демо.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="202">
   <si>
     <t>ID</t>
   </si>
@@ -109,30 +109,6 @@
   </si>
   <si>
     <r>
-      <t>проверка combo-box "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>FLIGHT FROM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>" на ввод кириллицы с последующим выбором из списка</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">проверка </t>
     </r>
     <r>
@@ -186,12 +162,6 @@
   </si>
   <si>
     <t>сегодня</t>
-  </si>
-  <si>
-    <t>сегодня+2мес</t>
-  </si>
-  <si>
-    <t>завтра до сегодня+2 мес-1 дн</t>
   </si>
   <si>
     <r>
@@ -423,21 +393,6 @@
   <si>
     <t>"FLIGHT FROM": Batumi (BUS)
 "'FLIGHT TO": Kiev (KBP)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"'FLIGHT TO": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>{</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2737,142 +2692,288 @@
     <t>Чек-Лист условий полёта (Flight detaits)</t>
   </si>
   <si>
-    <t>Fk_1_1</t>
-  </si>
-  <si>
-    <t>Fk_1_2</t>
-  </si>
-  <si>
-    <t>Fk_1_3</t>
-  </si>
-  <si>
-    <t>Fk_1_4</t>
-  </si>
-  <si>
-    <t>Fk_1_5</t>
-  </si>
-  <si>
-    <t>Fk_2_1</t>
-  </si>
-  <si>
-    <t>Fk_2_2</t>
-  </si>
-  <si>
-    <t>Fk_2_3</t>
-  </si>
-  <si>
-    <t>Fk_2_4</t>
-  </si>
-  <si>
-    <t>Fk_2_5</t>
-  </si>
-  <si>
-    <t>Fk_2_6</t>
-  </si>
-  <si>
-    <t>Fk_2_7</t>
-  </si>
-  <si>
-    <t>Fk_3_1</t>
-  </si>
-  <si>
-    <t>Fk_3_2</t>
-  </si>
-  <si>
-    <t>Fk_3_3</t>
-  </si>
-  <si>
-    <t>Fk_3_4</t>
-  </si>
-  <si>
-    <t>Fk_3_5</t>
-  </si>
-  <si>
-    <t>Fk_3_6</t>
-  </si>
-  <si>
-    <t>Fk_5_1</t>
-  </si>
-  <si>
-    <t>Fk_5_2</t>
-  </si>
-  <si>
-    <t>Fk_5_3</t>
-  </si>
-  <si>
-    <t>Fk_6_1</t>
-  </si>
-  <si>
-    <t>Fk_6_2</t>
-  </si>
-  <si>
-    <t>Fk_6_3</t>
-  </si>
-  <si>
-    <t>Fk_6_4</t>
-  </si>
-  <si>
-    <t>Fk_6_5</t>
-  </si>
-  <si>
-    <t>Fk_7_1</t>
-  </si>
-  <si>
-    <t>Fk_7_2</t>
-  </si>
-  <si>
-    <t>Fk_7_3</t>
-  </si>
-  <si>
-    <t>Fk_7_4</t>
-  </si>
-  <si>
-    <t>Fk_7_5</t>
-  </si>
-  <si>
-    <t>Fk_7_6</t>
-  </si>
-  <si>
-    <t>Fk_8_1</t>
-  </si>
-  <si>
-    <t>Fk_8_2</t>
-  </si>
-  <si>
-    <t>Fk_8_3</t>
-  </si>
-  <si>
-    <t>Fk_8_3a</t>
-  </si>
-  <si>
-    <t>Fk_8_4</t>
-  </si>
-  <si>
-    <t>Fk_8_5</t>
-  </si>
-  <si>
-    <t>Fk_8_6</t>
-  </si>
-  <si>
-    <t>Fk_8_7</t>
-  </si>
-  <si>
-    <t>Fk_10_1</t>
-  </si>
-  <si>
-    <t>Fk_10_2</t>
-  </si>
-  <si>
-    <t>Fk_10_3</t>
-  </si>
-  <si>
-    <t>Fk_10_4</t>
-  </si>
-  <si>
-    <t>Fk_11</t>
-  </si>
-  <si>
     <t>проверка на ввод кода аэропорта</t>
+  </si>
+  <si>
+    <t>уточнено!</t>
+  </si>
+  <si>
+    <t>сег+2мес -2дн</t>
+  </si>
+  <si>
+    <t>ДО 2х!!</t>
+  </si>
+  <si>
+    <t>2 мес -1дн</t>
+  </si>
+  <si>
+    <t>завтра до сегодня+2 мес-2 дн</t>
+  </si>
+  <si>
+    <t>Fd_1_1</t>
+  </si>
+  <si>
+    <t>Fd_1_2</t>
+  </si>
+  <si>
+    <t>Fd_1_3</t>
+  </si>
+  <si>
+    <t>Fd_1_4</t>
+  </si>
+  <si>
+    <t>Fd_1_5</t>
+  </si>
+  <si>
+    <t>Fd_2_1</t>
+  </si>
+  <si>
+    <t>Fd_2_2</t>
+  </si>
+  <si>
+    <t>Fd_2_3</t>
+  </si>
+  <si>
+    <t>Fd_2_4</t>
+  </si>
+  <si>
+    <t>Fd_2_5</t>
+  </si>
+  <si>
+    <t>Fd_2_6</t>
+  </si>
+  <si>
+    <t>Fd_2_7</t>
+  </si>
+  <si>
+    <t>Fd_3_1</t>
+  </si>
+  <si>
+    <t>Fd_3_2</t>
+  </si>
+  <si>
+    <t>Fd_3_3</t>
+  </si>
+  <si>
+    <t>Fd_3_4</t>
+  </si>
+  <si>
+    <t>Fd_3_5</t>
+  </si>
+  <si>
+    <t>Fd_3_6</t>
+  </si>
+  <si>
+    <t>Fd_5_1</t>
+  </si>
+  <si>
+    <t>Fd_5_2</t>
+  </si>
+  <si>
+    <t>Fd_5_3</t>
+  </si>
+  <si>
+    <t>Fd_6_1</t>
+  </si>
+  <si>
+    <t>Fd_6_2</t>
+  </si>
+  <si>
+    <t>Fd_6_3</t>
+  </si>
+  <si>
+    <t>Fd_6_4</t>
+  </si>
+  <si>
+    <t>Fd_6_5</t>
+  </si>
+  <si>
+    <t>Fd_7_1</t>
+  </si>
+  <si>
+    <t>Fd_7_2</t>
+  </si>
+  <si>
+    <t>Fd_7_3</t>
+  </si>
+  <si>
+    <t>Fd_7_4</t>
+  </si>
+  <si>
+    <t>Fd_7_5</t>
+  </si>
+  <si>
+    <t>Fd_7_6</t>
+  </si>
+  <si>
+    <t>Fd_8_1</t>
+  </si>
+  <si>
+    <t>Fd_8_2</t>
+  </si>
+  <si>
+    <t>Fd_8_3</t>
+  </si>
+  <si>
+    <t>Fd_8_3a</t>
+  </si>
+  <si>
+    <t>Fd_8_4</t>
+  </si>
+  <si>
+    <t>Fd_8_5</t>
+  </si>
+  <si>
+    <t>Fd_8_6</t>
+  </si>
+  <si>
+    <t>Fd_8_7</t>
+  </si>
+  <si>
+    <t>Fd_10_1</t>
+  </si>
+  <si>
+    <t>Fd_10_2</t>
+  </si>
+  <si>
+    <t>Fd_10_3</t>
+  </si>
+  <si>
+    <t>Fd_10_4</t>
+  </si>
+  <si>
+    <t>Fd_11</t>
+  </si>
+  <si>
+    <r>
+      <t>проверка combo-box "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>FLIGHT FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>" на ввод кириллицей названия города с последующим выбором из списка</t>
+    </r>
+  </si>
+  <si>
+    <t>Fd_2_4a</t>
+  </si>
+  <si>
+    <r>
+      <t>проверка combo-box "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>FLIGHT FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>" на ввод кириллицей кода аэропорта с последующим выбором из списка</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"'FLIGHT TO": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>tbs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"FLIGHT FROM": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Kiev (KBP)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"'FLIGHT TO": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>bus</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>проверка combo-box "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>FLIGHT TO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>" на ввод кириллицей кода аэропорта с последующим выбором из списка</t>
+    </r>
+  </si>
+  <si>
+    <t>Fd_3_3a</t>
+  </si>
+  <si>
+    <t>"№%?</t>
   </si>
 </sst>
 </file>
@@ -3121,7 +3222,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3217,8 +3318,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3241,12 +3342,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF434343"/>
+          <bgColor rgb="FF434343"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -3642,10 +3787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:S60"/>
+  <dimension ref="A2:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3668,22 +3813,22 @@
   <sheetData>
     <row r="2" spans="1:9" ht="34.5" customHeight="1">
       <c r="A2" s="40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B2" s="40"/>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="41" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
@@ -3702,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -3725,14 +3870,14 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -3745,21 +3890,21 @@
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="26.25">
       <c r="A6" s="23" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
@@ -3772,24 +3917,24 @@
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="11" t="str">
-        <f>"field "&amp;L36&amp;"can be selected"&amp;"  
-"&amp;"field "&amp;L37&amp;  " can be selected"</f>
+        <f>"field "&amp;L38&amp;"can be selected"&amp;"  
+"&amp;"field "&amp;L39&amp;  " can be selected"</f>
         <v>field "DEPARTURE DATE" can be selected  
 field "RETURN DATE" can be selected</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="26.25">
       <c r="A7" s="23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
@@ -3802,33 +3947,33 @@
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="11" t="str">
-        <f>"field "&amp;L36&amp;" can be selected"&amp;"  
-"&amp;"field "&amp;L37&amp;  " unselectable"</f>
+        <f>"field "&amp;L38&amp;" can be selected"&amp;"  
+"&amp;"field "&amp;L39&amp;  " unselectable"</f>
         <v>field "DEPARTURE DATE"  can be selected  
 field "RETURN DATE" unselectable</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="63.75">
       <c r="A8" s="23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C8" s="34" t="str">
         <f ca="1">"radio-button set on 'RETURN'"&amp;"
 'FLIGHT FROM': Kharkiv (HRK)
 'FLIGHT TO': Batumi (BUS)
-"&amp;L36&amp;": "&amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp;" to "&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")&amp;"
-"&amp;L37&amp;":"</f>
+"&amp;L38&amp;": "&amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp;" to "&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")&amp;"
+"&amp;L39&amp;":"</f>
         <v>radio-button set on 'RETURN'
 'FLIGHT FROM': Kharkiv (HRK)
 'FLIGHT TO': Batumi (BUS)
-"DEPARTURE DATE" : 24.12.2019 to 22.02.2020
+"DEPARTURE DATE" : 29.12.2019 to 27.02.2020
 "RETURN DATE":</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
@@ -3841,30 +3986,30 @@
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="63.75">
       <c r="A9" s="24" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C9" s="34" t="str">
         <f ca="1">"radio-button set on 'RETURN'"&amp;"
 'FLIGHT FROM': Kharkiv (HRK)
 'FLIGHT TO': Batumi (BUS)
-"&amp;L36&amp;": "&amp;"
-"&amp;L37&amp;":"&amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp;" to "&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")</f>
+"&amp;L38&amp;": "&amp;"
+"&amp;L39&amp;":"&amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp;" to "&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")</f>
         <v>radio-button set on 'RETURN'
 'FLIGHT FROM': Kharkiv (HRK)
 'FLIGHT TO': Batumi (BUS)
 "DEPARTURE DATE" : 
-"RETURN DATE":24.12.2019 to 22.02.2020</v>
+"RETURN DATE":29.12.2019 to 27.02.2020</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
@@ -3877,19 +4022,19 @@
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="23" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
@@ -3902,20 +4047,20 @@
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="11" t="str">
-        <f>"field "&amp;L30&amp;": "&amp; "'KIEV (KBP)' entered in the field "</f>
+        <f>"field "&amp;L32&amp;": "&amp; "'KIEV (KBP)' entered in the field "</f>
         <v xml:space="preserve">field "FLIGHT FROM": 'KIEV (KBP)' entered in the field </v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>8</v>
@@ -3928,21 +4073,21 @@
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -3955,22 +4100,22 @@
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="str">
-        <f>"field "&amp;L31&amp;"  unselectable (walkaround?)"</f>
+        <f>"field "&amp;L33&amp;"  unselectable (walkaround?)"</f>
         <v>field "FLIGHT TO"  unselectable (walkaround?)</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="25.5">
       <c r="A13" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>8</v>
@@ -3983,21 +4128,21 @@
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="39">
-      <c r="A14" s="24" t="s">
-        <v>156</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="25.5">
+      <c r="A14" s="23" t="s">
+        <v>195</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>53</v>
+        <v>196</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -4010,21 +4155,21 @@
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="4" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="39">
       <c r="A15" s="24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -4037,21 +4182,21 @@
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="39">
       <c r="A16" s="24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>8</v>
@@ -4064,21 +4209,21 @@
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="26.25">
-      <c r="A17" s="23" t="s">
-        <v>159</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="39">
+      <c r="A17" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>8</v>
@@ -4091,21 +4236,21 @@
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="25.5">
-      <c r="A18" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" s="38" t="s">
         <v>56</v>
       </c>
+    </row>
+    <row r="18" spans="1:12" ht="26.25">
+      <c r="A18" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="C18" s="20" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>8</v>
@@ -4117,50 +4262,50 @@
         <v>8</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="22" t="str">
-        <f>"MonthCalendar field "&amp;L36&amp;"  unselectable"</f>
+      <c r="I18" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="25.5">
+      <c r="A19" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="22" t="str">
+        <f>"MonthCalendar field "&amp;L38&amp;"  unselectable"</f>
         <v>MonthCalendar field "DEPARTURE DATE"   unselectable</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="25.5">
-      <c r="A19" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B19" s="6" t="s">
+    <row r="20" spans="1:12" ht="25.5">
+      <c r="A20" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="26.25">
-      <c r="A20" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>8</v>
@@ -4173,22 +4318,21 @@
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="1:12" ht="26.25">
-      <c r="A21" s="24" t="s">
-        <v>163</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="25.5">
+      <c r="A21" s="23" t="s">
+        <v>200</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -4201,7 +4345,7 @@
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="4" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="26.25">
@@ -4209,13 +4353,13 @@
         <v>164</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
@@ -4228,21 +4372,22 @@
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12" ht="26.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="24" t="s">
         <v>165</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>8</v>
@@ -4255,21 +4400,21 @@
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="63.75">
-      <c r="A24" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="26.25">
+      <c r="A24" s="24" t="s">
         <v>166</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>8</v>
@@ -4282,21 +4427,21 @@
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="63.75">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="26.25">
       <c r="A25" s="23" t="s">
         <v>167</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>8</v>
@@ -4309,22 +4454,21 @@
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="25.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="63.75">
       <c r="A26" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="9" t="str">
-        <f ca="1">TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp;" -- "&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")</f>
-        <v>24.12.2019 -- 22.02.2020</v>
+      <c r="B26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>8</v>
@@ -4336,25 +4480,22 @@
         <v>8</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="17"/>
-    </row>
-    <row r="27" spans="1:12" ht="25.5">
+      <c r="I26" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="63.75">
       <c r="A27" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="9">
-        <f ca="1">TODAY()</f>
-        <v>43822</v>
+      <c r="B27" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>8</v>
@@ -4366,27 +4507,23 @@
         <v>8</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="21"/>
+      <c r="I27" s="4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="25.5">
       <c r="A28" s="23" t="s">
         <v>170</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="9">
-        <f ca="1">EDATE(TODAY(),2)</f>
-        <v>43884</v>
+        <v>19</v>
+      </c>
+      <c r="C28" s="9" t="str">
+        <f ca="1">TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp;" -- "&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")</f>
+        <v>29.12.2019 -- 27.02.2020</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>8</v>
@@ -4398,31 +4535,25 @@
         <v>8</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="1:12" ht="39">
+      <c r="I28" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="1:12" ht="25.5">
       <c r="A29" s="23" t="s">
         <v>171</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="11" t="str">
-        <f ca="1">"radio-button set on 'RETURN'
-"&amp;L37&amp;": "&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")&amp;" (or nearest smaller?)
-"&amp;L36&amp;": "&amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp; " to "&amp;L37</f>
-        <v>radio-button set on 'RETURN'
-"RETURN DATE": 22.02.2020 (or nearest smaller?)
-"DEPARTURE DATE" : 24.12.2019 to "RETURN DATE"</v>
+        <v>67</v>
+      </c>
+      <c r="C29" s="9">
+        <f ca="1">TODAY()</f>
+        <v>43827</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -4434,25 +4565,25 @@
         <v>8</v>
       </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="1:12" ht="51">
-      <c r="A30" s="24" t="s">
+      <c r="I29" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" spans="1:12" ht="25.5">
+      <c r="A30" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="6" t="str">
-        <f ca="1">"radio-button set on 'RETURN'
-"&amp;L37&amp;": " &amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг") &amp;" (or nearest bigger?)
-"&amp;L36&amp;": "&amp;L37&amp;"-1 (or nearest smaller?)"</f>
-        <v>radio-button set on 'RETURN'
-"RETURN DATE": 24.12.2019 (or nearest bigger?)
-"DEPARTURE DATE" : "RETURN DATE"-1 (or nearest smaller?)</v>
+      <c r="B30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="9">
+        <f ca="1">EDATE(TODAY(),2)-1</f>
+        <v>43888</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>8</v>
@@ -4464,30 +4595,29 @@
         <v>8</v>
       </c>
       <c r="H30" s="5"/>
-      <c r="I30" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="L30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="39" customHeight="1">
+      <c r="I30" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="1:12" ht="39">
       <c r="A31" s="23" t="s">
         <v>173</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C31" s="11" t="str">
         <f ca="1">"radio-button set on 'RETURN'
-"&amp;L36&amp;": " &amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг") &amp;" (or nearest bigger?)
-"&amp;L37&amp;":"&amp;" "&amp;L36&amp;"+1"&amp;" to "&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")</f>
+"&amp;L39&amp;": "&amp;TEXT(EDATE(TODAY(),2)-2,"дд.ММ.гггг")&amp;" (or nearest smaller?)
+"&amp;L38&amp;": "&amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp; " to "&amp;L39</f>
         <v>radio-button set on 'RETURN'
-"DEPARTURE DATE" : 24.12.2019 (or nearest bigger?)
-"RETURN DATE": "DEPARTURE DATE" +1 to 22.02.2020</v>
+"RETURN DATE": 26.02.2020 (or nearest smaller?)
+"DEPARTURE DATE" : 29.12.2019 to "RETURN DATE"</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>8</v>
@@ -4499,28 +4629,25 @@
         <v>8</v>
       </c>
       <c r="H31" s="5"/>
-      <c r="I31" s="11"/>
-      <c r="L31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="39">
-      <c r="A32" s="23" t="s">
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" ht="51">
+      <c r="A32" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="11" t="str">
+      <c r="B32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="6" t="str">
         <f ca="1">"radio-button set on 'RETURN'
-"&amp;L36&amp;":"&amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp;" (or nearest bigger?)
-"&amp;L37&amp;":"&amp;TEXT(EDATE(TODAY(),2),"дд.ММ.гггг")&amp;"(or nearest smaller?)"</f>
+"&amp;L39&amp;": " &amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг") &amp;" (or nearest bigger?)
+"&amp;L38&amp;": "&amp;L39&amp;"-1 (or nearest smaller?)"</f>
         <v>radio-button set on 'RETURN'
-"DEPARTURE DATE" :24.12.2019 (or nearest bigger?)
-"RETURN DATE":23.02.2020(or nearest smaller?)</v>
+"RETURN DATE": 29.12.2019 (or nearest bigger?)
+"DEPARTURE DATE" : "RETURN DATE"-1 (or nearest smaller?)</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>8</v>
@@ -4532,27 +4659,30 @@
         <v>8</v>
       </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="39">
+      <c r="I32" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="L32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="39" customHeight="1">
       <c r="A33" s="23" t="s">
         <v>175</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="C33" s="11" t="str">
         <f ca="1">"radio-button set on 'RETURN'
-"&amp;L36&amp;": "&amp;TEXT(EDATE(TODAY(),0),"дд.ММ.гггг")&amp;" to "&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")&amp;" 
-"&amp;L37&amp;": "&amp;" "&amp;L36&amp;""</f>
-        <v xml:space="preserve">radio-button set on 'RETURN'
-"DEPARTURE DATE" : 23.12.2019 to 22.02.2020 
-"RETURN DATE":  "DEPARTURE DATE" </v>
+"&amp;L38&amp;": " &amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг") &amp;" (or nearest bigger?)
+"&amp;L39&amp;":"&amp;" "&amp;L38&amp;"+1"&amp;" to "&amp;TEXT(EDATE(TODAY(),2)-2,"дд.ММ.гггг")</f>
+        <v>radio-button set on 'RETURN'
+"DEPARTURE DATE" : 29.12.2019 (or nearest bigger?)
+"RETURN DATE": "DEPARTURE DATE" +1 to 26.02.2020</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>8</v>
@@ -4565,31 +4695,27 @@
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="11"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
+      <c r="L33" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="34" spans="1:19" ht="39">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>127</v>
+      <c r="B34" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C34" s="11" t="str">
         <f ca="1">"radio-button set on 'RETURN'
-"&amp;L36&amp;": "&amp;TEXT(EDATE(TODAY(),0),"дд.ММ.гггг")&amp;" to "&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")&amp;" 
-"&amp;L37&amp;": "&amp;"smaller then "&amp;L36&amp;""</f>
-        <v xml:space="preserve">radio-button set on 'RETURN'
-"DEPARTURE DATE" : 23.12.2019 to 22.02.2020 
-"RETURN DATE": smaller then "DEPARTURE DATE" </v>
+"&amp;L38&amp;":"&amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp;" (or nearest bigger?)
+"&amp;L39&amp;":"&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")&amp;"(or nearest smaller?)"</f>
+        <v>radio-button set on 'RETURN'
+"DEPARTURE DATE" :29.12.2019 (or nearest bigger?)
+"RETURN DATE":27.02.2020(or nearest smaller?)</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>8</v>
@@ -4602,142 +4728,110 @@
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="M34" s="27"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="35" spans="1:19" ht="39">
       <c r="A35" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="B35" s="39" t="s">
-        <v>79</v>
+      <c r="B35" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C35" s="11" t="str">
         <f ca="1">"radio-button set on 'RETURN'
-"&amp;L36&amp;": "&amp;"
-"&amp;L37&amp;": "&amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp;" to "&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")&amp;""</f>
+"&amp;L38&amp;": "&amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp;" to "&amp;TEXT(EDATE(TODAY(),2)-2,"дд.ММ.гггг")&amp;" 
+"&amp;L39&amp;": "&amp;" "&amp;L38&amp;""</f>
+        <v xml:space="preserve">radio-button set on 'RETURN'
+"DEPARTURE DATE" : 29.12.2019 to 26.02.2020 
+"RETURN DATE":  "DEPARTURE DATE" </v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="11"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="S35" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="39">
+      <c r="A36" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="11" t="str">
+        <f ca="1">"radio-button set on 'RETURN'
+"&amp;L38&amp;": "&amp;TEXT(EDATE(TODAY(),0),"дд.ММ.гггг")&amp;" to "&amp;TEXT(EDATE(TODAY(),2)-2,"дд.ММ.гггг")&amp;" 
+"&amp;L39&amp;": "&amp;"smaller then "&amp;L38&amp;""</f>
+        <v xml:space="preserve">radio-button set on 'RETURN'
+"DEPARTURE DATE" : 28.12.2019 to 26.02.2020 
+"RETURN DATE": smaller then "DEPARTURE DATE" </v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M36" s="27"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="S36" s="39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="39">
+      <c r="A37" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="11" t="str">
+        <f ca="1">"radio-button set on 'RETURN'
+"&amp;L38&amp;": "&amp;"
+"&amp;L39&amp;": "&amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp;" to "&amp;TEXT(EDATE(TODAY(),2)-2,"дд.ММ.гггг")&amp;""</f>
         <v>radio-button set on 'RETURN'
 "DEPARTURE DATE" : 
-"RETURN DATE": 24.12.2019 to 22.02.2020</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M35" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N35" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O35" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="P35" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="R35" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="S35" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="39">
-      <c r="A36" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="11" t="str">
-        <f ca="1">"radio-button set on 'RETURN'
-"&amp;L36&amp;":"&amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp;" (or nearest bigger?)
-"&amp;L37&amp;":"&amp;"  "&amp;L36</f>
-        <v xml:space="preserve">radio-button set on 'RETURN'
-"DEPARTURE DATE" :24.12.2019 (or nearest bigger?)
-"RETURN DATE":  "DEPARTURE DATE" </v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="11"/>
-      <c r="L36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="M36" s="7">
-        <f ca="1">TODAY()-1</f>
-        <v>43821</v>
-      </c>
-      <c r="N36" s="7">
-        <f ca="1">TODAY()</f>
-        <v>43822</v>
-      </c>
-      <c r="O36" s="7" t="str">
-        <f ca="1">TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")</f>
-        <v>24.12.2019</v>
-      </c>
-      <c r="P36" t="str">
-        <f ca="1">TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp;"-"&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")</f>
-        <v>24.12.2019-22.02.2020</v>
-      </c>
-      <c r="Q36" s="7">
-        <f ca="1">EDATE(TODAY(),2)-1</f>
-        <v>43883</v>
-      </c>
-      <c r="R36" s="7">
-        <f ca="1">EDATE(TODAY(),2)</f>
-        <v>43884</v>
-      </c>
-      <c r="S36" s="7">
-        <f ca="1">EDATE(TODAY(),2)+1</f>
-        <v>43885</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="A37" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>29</v>
+"RETURN DATE": 29.12.2019 to 26.02.2020</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>8</v>
@@ -4749,23 +4843,48 @@
         <v>8</v>
       </c>
       <c r="H37" s="5"/>
-      <c r="I37" s="4"/>
-      <c r="L37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="25.5">
+      <c r="I37" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q37" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="R37" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="S37" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="39">
       <c r="A38" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>108</v>
+      <c r="B38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="11" t="str">
+        <f ca="1">"radio-button set on 'RETURN'
+"&amp;L38&amp;":"&amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp;" (or nearest bigger?)
+"&amp;L39&amp;":"&amp;"  "&amp;L38</f>
+        <v xml:space="preserve">radio-button set on 'RETURN'
+"DEPARTURE DATE" :29.12.2019 (or nearest bigger?)
+"RETURN DATE":  "DEPARTURE DATE" </v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>8</v>
@@ -4777,23 +4896,51 @@
         <v>8</v>
       </c>
       <c r="H38" s="5"/>
-      <c r="I38" s="4"/>
-      <c r="L38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="25.5">
+      <c r="I38" s="11"/>
+      <c r="L38" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="7">
+        <f ca="1">TODAY()-1</f>
+        <v>43826</v>
+      </c>
+      <c r="N38" s="7">
+        <f ca="1">TODAY()</f>
+        <v>43827</v>
+      </c>
+      <c r="O38" s="7" t="str">
+        <f ca="1">TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")</f>
+        <v>29.12.2019</v>
+      </c>
+      <c r="P38" t="str">
+        <f ca="1">TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp;"-"&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")</f>
+        <v>29.12.2019-27.02.2020</v>
+      </c>
+      <c r="Q38" s="7">
+        <f ca="1">EDATE(TODAY(),2)-2</f>
+        <v>43887</v>
+      </c>
+      <c r="R38" s="7">
+        <f ca="1">EDATE(TODAY(),2)-1</f>
+        <v>43888</v>
+      </c>
+      <c r="S38" s="7">
+        <f ca="1">EDATE(TODAY(),2)</f>
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="23" t="s">
         <v>181</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>8</v>
@@ -4805,11 +4952,9 @@
         <v>8</v>
       </c>
       <c r="H39" s="5"/>
-      <c r="I39" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>12</v>
+      <c r="I39" s="4"/>
+      <c r="L39" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="25.5">
@@ -4817,13 +4962,13 @@
         <v>182</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>8</v>
@@ -4835,23 +4980,23 @@
         <v>8</v>
       </c>
       <c r="H40" s="5"/>
-      <c r="I40" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="L40" s="2"/>
+      <c r="I40" s="4"/>
+      <c r="L40" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="41" spans="1:19" ht="25.5">
       <c r="A41" s="23" t="s">
         <v>183</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>8</v>
@@ -4863,21 +5008,25 @@
         <v>8</v>
       </c>
       <c r="H41" s="5"/>
-      <c r="I41" s="4"/>
-      <c r="L41" s="19"/>
+      <c r="I41" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="42" spans="1:19" ht="25.5">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>143</v>
+      <c r="B42" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
@@ -4889,20 +5038,23 @@
         <v>8</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="I42" s="4"/>
+      <c r="I42" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:19" ht="25.5">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>144</v>
+      <c r="B43" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>8</v>
@@ -4915,19 +5067,20 @@
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="4"/>
+      <c r="L43" s="19"/>
     </row>
     <row r="44" spans="1:19" ht="25.5">
       <c r="A44" s="24" t="s">
         <v>186</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>8</v>
@@ -4941,39 +5094,89 @@
       <c r="H44" s="5"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="47" spans="1:19" ht="111" customHeight="1">
-      <c r="B47" s="26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
-        <v>132</v>
+    <row r="45" spans="1:19" ht="25.5">
+      <c r="A45" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:19" ht="25.5">
+      <c r="A46" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="49" spans="2:2" ht="111" customHeight="1">
+      <c r="B49" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
-        <v>133</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4982,28 +5185,48 @@
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="C2:I2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J26:J28 L26 L20 D5:G44">
-    <cfRule type="containsText" dxfId="3" priority="64" operator="containsText" text="Testing">
+  <conditionalFormatting sqref="J28:J30 L28 L22 D5:G46">
+    <cfRule type="containsText" dxfId="15" priority="68" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH(("Testing"),(D5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J28 L26 L20 D5:G44">
-    <cfRule type="containsText" dxfId="2" priority="63" operator="containsText" text="Checked">
+  <conditionalFormatting sqref="J28:J30 L28 L22 D5:G46">
+    <cfRule type="containsText" dxfId="14" priority="67" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(D5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J28 L26 L20 D5:G44">
-    <cfRule type="containsText" dxfId="1" priority="62" operator="containsText" text="Failed">
+  <conditionalFormatting sqref="J28:J30 L28 L22 D5:G46">
+    <cfRule type="containsText" dxfId="13" priority="66" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(D5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J28 L26 L20 D5:G44">
-    <cfRule type="containsText" dxfId="0" priority="61" operator="containsText" text="Untested">
+  <conditionalFormatting sqref="J28:J30 L28 L22 D5:G46">
+    <cfRule type="containsText" dxfId="12" priority="65" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(D5))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Testing">
+      <formula>NOT(ISERROR(SEARCH(("Testing"),(I28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations xWindow="1078" yWindow="316" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cheklist items status must be only: Checked, Untested, Failed, Testing" sqref="D5:G44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cheklist items status must be only: Checked, Untested, Failed, Testing" sqref="D5:G46">
       <formula1>"Checked,Untested,Failed,Testing"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5019,8 +5242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5041,7 +5264,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="21">
       <c r="A1" s="40" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="44" t="s">
@@ -5056,7 +5279,7 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="41" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -5075,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5098,16 +5321,16 @@
     </row>
     <row r="4" spans="1:20" ht="76.5">
       <c r="A4" s="23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -5120,43 +5343,43 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="T4" s="27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="89.25">
       <c r="A5" s="23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -5169,53 +5392,53 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">TODAY()-1</f>
-        <v>43821</v>
+        <v>43826</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7">
         <f ca="1">TODAY()</f>
-        <v>43822</v>
+        <v>43827</v>
       </c>
       <c r="P5" s="7" t="str">
         <f ca="1">TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")</f>
-        <v>24.12.2019</v>
+        <v>29.12.2019</v>
       </c>
       <c r="Q5" t="str">
         <f ca="1">TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp;"-"&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")</f>
-        <v>24.12.2019-22.02.2020</v>
+        <v>29.12.2019-27.02.2020</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">EDATE(TODAY(),2)-1</f>
-        <v>43883</v>
+        <v>43888</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">EDATE(TODAY(),2)</f>
-        <v>43884</v>
+        <v>43889</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">EDATE(TODAY(),2)+1</f>
-        <v>43885</v>
+        <v>43890</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="76.5">
       <c r="A6" s="23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
@@ -5228,21 +5451,21 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="89.25">
       <c r="A7" s="23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
@@ -5255,39 +5478,39 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="s">
         <v>98</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="M7" t="s">
+      <c r="Q7" s="25" t="s">
         <v>102</v>
-      </c>
-      <c r="N7" t="s">
-        <v>104</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="P7" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q7" s="25" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="226.5" customHeight="1">
       <c r="A8" s="23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
@@ -5300,12 +5523,12 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="B11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5315,42 +5538,42 @@
     <mergeCell ref="A2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:H7">
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH(("Testing"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:H7">
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:H7">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:H7">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:H8">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH(("Testing"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:H8">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:H8">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:H8">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5369,77 +5592,77 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:AU12"/>
+  <dimension ref="B3:AW12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="47" width="3.28515625" customWidth="1"/>
+    <col min="3" max="49" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:47" ht="55.5" customHeight="1">
+    <row r="3" spans="2:49" ht="55.5" customHeight="1">
       <c r="C3" s="29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>195</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="O3" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="O3" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="Q3" s="29" t="s">
+      <c r="P3" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="Q3" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="R3" s="29" t="s">
         <v>163</v>
+      </c>
+      <c r="S3" s="29" t="s">
+        <v>200</v>
       </c>
       <c r="T3" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="U3" s="29" t="s">
+      <c r="U3" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="V3" s="29" t="s">
+      <c r="V3" s="30" t="s">
         <v>166</v>
       </c>
       <c r="W3" s="29" t="s">
@@ -5457,25 +5680,25 @@
       <c r="AA3" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="AB3" s="30" t="s">
+      <c r="AB3" s="29" t="s">
         <v>172</v>
       </c>
       <c r="AC3" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="AD3" s="29" t="s">
+      <c r="AD3" s="30" t="s">
         <v>174</v>
       </c>
       <c r="AE3" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="AF3" s="30" t="s">
+      <c r="AF3" s="29" t="s">
         <v>176</v>
       </c>
       <c r="AG3" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="AH3" s="29" t="s">
+      <c r="AH3" s="30" t="s">
         <v>178</v>
       </c>
       <c r="AI3" s="29" t="s">
@@ -5493,19 +5716,19 @@
       <c r="AM3" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="AN3" s="30" t="s">
+      <c r="AN3" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="AO3" s="30" t="s">
+      <c r="AO3" s="29" t="s">
         <v>185</v>
       </c>
       <c r="AP3" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="AQ3" s="29" t="s">
+      <c r="AQ3" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="AR3" s="29" t="s">
+      <c r="AR3" s="30" t="s">
         <v>188</v>
       </c>
       <c r="AS3" s="29" t="s">
@@ -5517,293 +5740,311 @@
       <c r="AU3" s="29" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="5" spans="2:47">
+      <c r="AV3" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="AW3" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="2:49">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="S5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="U5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Y5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Z5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AA5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AB5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AC5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AD5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AE5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AF5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AG5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AH5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AK5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AL5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AM5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AN5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AO5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AP5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AQ5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AR5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AS5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AT5" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AU5" s="32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:47">
+        <v>74</v>
+      </c>
+      <c r="AV5" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW5" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:49">
       <c r="B6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N6" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="S6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="U6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Y6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Z6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AA6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AB6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AC6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AD6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AE6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AF6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AG6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AH6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AK6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AL6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AM6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AN6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AO6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AP6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AQ6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AR6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AS6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AT6" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AU6" s="32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="2:47">
+        <v>74</v>
+      </c>
+      <c r="AV6" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW6" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:49">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
@@ -5812,115 +6053,119 @@
       <c r="L7" s="31"/>
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>78</v>
-      </c>
+      <c r="O7" s="31"/>
       <c r="P7" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R7" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="S7" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T7" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="U7" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V7" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W7" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="X7" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="X7" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y7" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="Z7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AA7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AB7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AC7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AD7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AE7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AF7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AG7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AH7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AK7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AL7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AM7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AN7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AO7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AP7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AQ7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AR7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AS7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AT7" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AU7" s="32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="2:47">
+        <v>74</v>
+      </c>
+      <c r="AV7" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW7" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:49">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G8" s="31"/>
       <c r="H8" s="31"/>
@@ -5936,74 +6181,76 @@
       <c r="R8" s="31"/>
       <c r="S8" s="31"/>
       <c r="T8" s="31"/>
-      <c r="U8" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="V8" s="31" t="s">
-        <v>78</v>
-      </c>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
       <c r="W8" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X8" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Y8" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Z8" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AA8" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AB8" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC8" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD8" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="AC8" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD8" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="AE8" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AF8" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AG8" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AH8" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ8" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR8" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="AI8" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ8" s="32" t="s">
+        <v>74</v>
       </c>
       <c r="AS8" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AT8" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AU8" s="32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="2:47">
+        <v>74</v>
+      </c>
+      <c r="AV8" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW8" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:49">
       <c r="B9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
       <c r="G9" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
@@ -6014,9 +6261,9 @@
       <c r="N9" s="31"/>
       <c r="O9" s="31"/>
       <c r="P9" s="31"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
       <c r="T9" s="31"/>
       <c r="U9" s="31"/>
       <c r="V9" s="31"/>
@@ -6026,43 +6273,45 @@
       <c r="Z9" s="31"/>
       <c r="AA9" s="31"/>
       <c r="AB9" s="31"/>
-      <c r="AC9" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD9" s="31" t="s">
-        <v>78</v>
-      </c>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31"/>
       <c r="AE9" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AF9" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AG9" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AH9" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ9" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR9" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="AI9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ9" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="AS9" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AT9" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AU9" s="32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="2:47">
+        <v>74</v>
+      </c>
+      <c r="AV9" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW9" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:49">
       <c r="B10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -6094,84 +6343,86 @@
       <c r="AD10" s="31"/>
       <c r="AE10" s="31"/>
       <c r="AF10" s="31"/>
-      <c r="AI10" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ10" s="31" t="s">
-        <v>78</v>
-      </c>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="31"/>
       <c r="AK10" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AL10" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AM10" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AN10" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AO10" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AP10" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ10" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR10" s="36" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="AQ10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR10" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="AS10" s="36" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AT10" s="36" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AU10" s="36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="2:47">
+        <v>74</v>
+      </c>
+      <c r="AV10" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW10" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:49">
       <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ11" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR11" s="31" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AS11" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AT11" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AU11" s="31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="2:47">
+        <v>74</v>
+      </c>
+      <c r="AV11" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW11" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:49">
       <c r="B12" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ12" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR12" s="31" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="AS12" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AT12" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AU12" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="AV12" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW12" s="31" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
